--- a/Original Data/Fall_Mow_Burn_Data.xlsx
+++ b/Original Data/Fall_Mow_Burn_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190EF784-CAE1-F84E-B23B-39AACA4ABC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE6F96-7B1B-D84B-8CF9-DF0A75262549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="21520" windowHeight="17500" activeTab="7" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="500" yWindow="500" windowWidth="21520" windowHeight="17500" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Veg" sheetId="7" r:id="rId7"/>
     <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="790">
   <si>
     <t>Code</t>
   </si>
@@ -2454,6 +2454,9 @@
   </si>
   <si>
     <t>NH</t>
+  </si>
+  <si>
+    <t>Plot_No</t>
   </si>
 </sst>
 </file>
@@ -13119,9 +13122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B80"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13138,7 +13141,7 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -19122,7 +19125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81122215-19AD-6544-853F-6F9496FAC7F0}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B35"/>
     </sheetView>

--- a/Original Data/Fall_Mow_Burn_Data.xlsx
+++ b/Original Data/Fall_Mow_Burn_Data.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BE6F96-7B1B-D84B-8CF9-DF0A75262549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D391B0E9-B53C-1C45-9652-EB58381F0229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="21520" windowHeight="17500" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="6040" yWindow="500" windowWidth="21520" windowHeight="17500" activeTab="8" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
-    <sheet name="Plot Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Small Seedling" sheetId="3" r:id="rId3"/>
-    <sheet name="Large Seedling" sheetId="4" r:id="rId4"/>
-    <sheet name="Sapling" sheetId="5" r:id="rId5"/>
-    <sheet name="Prism" sheetId="6" r:id="rId6"/>
-    <sheet name="Veg" sheetId="7" r:id="rId7"/>
-    <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Meta" sheetId="9" r:id="rId2"/>
+    <sheet name="Plot Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Small Seedling" sheetId="3" r:id="rId4"/>
+    <sheet name="Large Seedling" sheetId="4" r:id="rId5"/>
+    <sheet name="Sapling" sheetId="5" r:id="rId6"/>
+    <sheet name="Prism" sheetId="6" r:id="rId7"/>
+    <sheet name="Veg" sheetId="7" r:id="rId8"/>
+    <sheet name="Ground Data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="846">
   <si>
     <t>Code</t>
   </si>
@@ -2405,9 +2406,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Plot#</t>
-  </si>
-  <si>
     <t>Mineral_Soil</t>
   </si>
   <si>
@@ -2438,25 +2436,207 @@
     <t>Other_damage</t>
   </si>
   <si>
-    <t>Total#</t>
-  </si>
-  <si>
-    <t>Browsed#</t>
-  </si>
-  <si>
-    <t>StumpSprout#</t>
-  </si>
-  <si>
-    <t>LymantriaDefo%</t>
-  </si>
-  <si>
-    <t>Germinate#</t>
-  </si>
-  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>Name &amp; Contact Info</t>
+  </si>
+  <si>
+    <t>Kathleen Stutzman; kstutzma@gmail.com</t>
+  </si>
+  <si>
+    <t>Geographic Information</t>
+  </si>
+  <si>
+    <t>Data were collected in Summer of 2022 &amp; 2023 in Pitch Pine Barrens on Long Island, NY, Albany, NY, Cape Cod area, MA, Ossipee area, NH, &amp; Waterboro, ME</t>
+  </si>
+  <si>
+    <t>Long Island: Rocky Point Pine Barren State Forest, Werthiem National Wildlife Refuge, Southaven County Park, &amp; Hubbard County Park</t>
+  </si>
+  <si>
+    <t>Albany: Albany Pine Bush Preserve</t>
+  </si>
+  <si>
+    <t>Cape Cod: Camp Edwards, Mashpee Wildlife Management Area, &amp; Myles Standish State Forest</t>
+  </si>
+  <si>
+    <t>Ossipee: TNC Ossipee &amp; Society for the Protection of New Hampshire's Forests</t>
+  </si>
+  <si>
+    <t>Waterboro: TNC Waterboro</t>
+  </si>
+  <si>
+    <t>Stand/Unit names are used as site names, with abbreviations. E.g. 'West Branch 10' at Ossipee TNC is labled TNCO_WB10</t>
+  </si>
+  <si>
+    <t>Name of Study</t>
+  </si>
+  <si>
+    <t>Regeneration dynamics in northeastern pitch pine barrens under different restoration scenarios</t>
+  </si>
+  <si>
+    <t>Source of Support</t>
+  </si>
+  <si>
+    <t>USDA, Dr. Dodds</t>
+  </si>
+  <si>
+    <t>Spatial technology development program</t>
+  </si>
+  <si>
+    <t>University of Vermont, Dr. D'Amato</t>
+  </si>
+  <si>
+    <t>Central Pine Barrens Joint Planning and Policy Commission, P. Weigand</t>
+  </si>
+  <si>
+    <t>Organization of the data file</t>
+  </si>
+  <si>
+    <t>Each site represents a treatment unit of pitch pine barren within a region. Each unit had an internal buffer of 30-40 meters and had between 18 and 25 plots located within them, with the exception of two RP D2, which was too small a unit and could only provide 9 plots with adequate buffering</t>
+  </si>
+  <si>
+    <t>Plots were a minimum of 10 meters apart, collected on transected. Plot points were generated by use of the fishnet function in ArcGIS, snapped to a random point</t>
+  </si>
+  <si>
+    <t>Plot centers were GPS-ed using a Garmin handheld unit.</t>
+  </si>
+  <si>
+    <t>Sites that were very large were subsampled. A center point was chosen visually with uniform/representative cover. An 8 HA/20A circular buffer was added around this central point. 40 meter buffers from unit edge were enforced where necessary and plots dropped within buffers or wrong natural communities (e.g. ponds)</t>
+  </si>
+  <si>
+    <t>Sampling site data includes natural community type, soil series, treatment type, treatment year, and presence of invasive plants not captured in the regeneration and shrub/herbaceous sampling. Recorded plot data includes latitude, longitude, slope, and aspect.</t>
+  </si>
+  <si>
+    <t>Regeneration was measured in 3 size classes and plot sizes:</t>
+  </si>
+  <si>
+    <t>Small seedling (SS), were &lt;50cm in height and measured in 1 square meter frame, with the SW corner of the frame located at the plot center; total number, number browsed, stump sprouts, and germinates recorded</t>
+  </si>
+  <si>
+    <t>Large seedling (LS) were &gt;/= 50cm height and &lt;2.5cm DBH and measured in a 10 square meter circular plot; total number, along with number browsed and stump sprouts recorded. In 2022, there was a lymantria dispar outbreak in NH, some data was recorded about LYDI dispar but it was isolated to NH</t>
+  </si>
+  <si>
+    <t>Saplings were &gt;/= 2.5cm and &lt;10cm DBH and measured in a 25 square meter circular plot;  size to one decimal point was recorded for each sapling, along with information about disease/defects</t>
+  </si>
+  <si>
+    <t>Regeneration was measured at functional height and not stretched; e.g. scrub oak branches were not pulled up to see if they exceeded 50cm, but rather measured where at their natural, effective height</t>
+  </si>
+  <si>
+    <t>Prism data was collected at each plot, using the plot center and a 10BAF prism</t>
+  </si>
+  <si>
+    <t>Binoculars were used the second year of sampling to look for mature, closed cones on trees. It was a rainy summer, which can contribute to cones being closed when they are not serotinous.</t>
+  </si>
+  <si>
+    <t>Vegetation was measured at every other 1 square meter plot, with SW corner of frame at plot center. Percent cover is recorded for each species present using eight cover classes: 1 &lt;1%; 2 1-5%; 3 6-10%; 4 11-20%; 5 21-40%; 6 41-60%; 7 61-80%; 8 81-100%. Samples were taken (or photos) for unidentified plants</t>
+  </si>
+  <si>
+    <t>Ground cover was classified into nine type classes (i.e. lichen, trash/junk, moss, road/trail, rock, water, mineral soil, wood, &amp; litter/duff) and abundance is characterized within the 1m² square plots, using the above eight cover classes. Water and trash/junk categories were never recorded. Litter depth measurements, measuring the depth of the O layer, were taken at the NW and SE corners of the 1m² frame at every other plot. Depths were measured up to 15cm, size of measuring tool.</t>
+  </si>
+  <si>
+    <r>
+      <t>Lymantria dispar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> outbreaks in NH in 2022 and late frost in MA in 2023 impacted the foliar abundance of some plants measured in the vegetative percent cover classes.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Sampling units came in 6 different treatment catgories: Spring RxFire, Fall RxFire, Harvest, Mow &amp; RxFire, Control, &amp; untreated Southern Pine Beetle outbreak</t>
+  </si>
+  <si>
+    <t>There were 3 replicates of each treatment, where possible, in each region, except for control, which had 2 replicates in every region (and 3 in LI, as it was the first summer of data collection)</t>
+  </si>
+  <si>
+    <t>Small seedling unit: count</t>
+  </si>
+  <si>
+    <t>Large seedling unit: count</t>
+  </si>
+  <si>
+    <t>Sapling unit: DBH in cm</t>
+  </si>
+  <si>
+    <t>Prism unit: 10BAF prism</t>
+  </si>
+  <si>
+    <t>Veg &amp; Ground Cover units: covering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1% </t>
+  </si>
+  <si>
+    <t>of 1 square meter frame</t>
+  </si>
+  <si>
+    <t>1-5%</t>
+  </si>
+  <si>
+    <t>6-10%</t>
+  </si>
+  <si>
+    <t>11-20%</t>
+  </si>
+  <si>
+    <t>21-40%</t>
+  </si>
+  <si>
+    <t>41-60%</t>
+  </si>
+  <si>
+    <t>61-80%</t>
+  </si>
+  <si>
+    <t>81-100%</t>
+  </si>
+  <si>
+    <t>All plants were given a 4 leter species code, two from the first latin name, two from the second; all are listed on the lookups page</t>
+  </si>
+  <si>
+    <t>Data in rows are individual observations from plots within sites</t>
+  </si>
+  <si>
+    <t>Data in columns are the species, number, size, % etc found</t>
+  </si>
+  <si>
+    <t>Sites were no species were observed are given an NA/'no species found' designation. Data was measured, it is NOT missing, despite NAs providing some trickiness in working with R</t>
+  </si>
+  <si>
+    <t>From data importation, data appears to be separated with a ;</t>
+  </si>
+  <si>
+    <t>Each observation of a different species is on a different line (hard return)</t>
+  </si>
+  <si>
+    <t>How data has been transformed</t>
+  </si>
+  <si>
+    <t>Notes, LYDI defoliation, and the categories 'trash/junk' &amp; 'water' were removed to import data into R</t>
+  </si>
+  <si>
     <t>Plot_No</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Browsed</t>
+  </si>
+  <si>
+    <t>StumpSprout</t>
+  </si>
+  <si>
+    <t>Germinate</t>
+  </si>
+  <si>
+    <t>LYDI_Defo</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2647,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2504,6 +2684,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2525,7 +2712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2537,6 +2724,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5574,6 +5767,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B049BD-77B7-7842-8072-A3CEF2E2D2E1}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C30D969-EB47-424C-B185-AD5A2274F503}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
@@ -6483,13 +7008,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEA277-0E57-8840-A58F-064455B4C014}">
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B73"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6507,25 +7032,25 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>783</v>
+        <v>841</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>785</v>
+        <v>843</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>787</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -6533,7 +7058,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -6563,7 +7088,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>282</v>
@@ -6593,7 +7118,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>283</v>
@@ -6623,7 +7148,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>284</v>
@@ -6653,7 +7178,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>285</v>
@@ -6683,7 +7208,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>286</v>
@@ -6713,7 +7238,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>287</v>
@@ -6743,7 +7268,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>288</v>
@@ -6773,7 +7298,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>289</v>
@@ -6803,7 +7328,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>290</v>
@@ -6833,7 +7358,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>291</v>
@@ -6863,7 +7388,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>292</v>
@@ -6893,7 +7418,7 @@
         <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>293</v>
@@ -6923,7 +7448,7 @@
         <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>294</v>
@@ -6953,7 +7478,7 @@
         <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>295</v>
@@ -6983,7 +7508,7 @@
         <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>296</v>
@@ -7013,7 +7538,7 @@
         <v>698</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>297</v>
@@ -7043,7 +7568,7 @@
         <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>298</v>
@@ -7073,7 +7598,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>299</v>
@@ -7103,7 +7628,7 @@
         <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>299</v>
@@ -7133,7 +7658,7 @@
         <v>698</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>299</v>
@@ -7163,7 +7688,7 @@
         <v>698</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>300</v>
@@ -7193,7 +7718,7 @@
         <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>301</v>
@@ -7223,7 +7748,7 @@
         <v>698</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>302</v>
@@ -7253,7 +7778,7 @@
         <v>698</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>303</v>
@@ -7283,7 +7808,7 @@
         <v>697</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>236</v>
@@ -7313,7 +7838,7 @@
         <v>697</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>237</v>
@@ -7343,7 +7868,7 @@
         <v>697</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>238</v>
@@ -7373,7 +7898,7 @@
         <v>697</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>239</v>
@@ -7403,7 +7928,7 @@
         <v>697</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>240</v>
@@ -7433,7 +7958,7 @@
         <v>697</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>241</v>
@@ -7463,7 +7988,7 @@
         <v>697</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>242</v>
@@ -7493,7 +8018,7 @@
         <v>697</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>243</v>
@@ -7523,7 +8048,7 @@
         <v>697</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>244</v>
@@ -7553,7 +8078,7 @@
         <v>697</v>
       </c>
       <c r="B36" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C36">
         <v>245</v>
@@ -7583,7 +8108,7 @@
         <v>697</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C37">
         <v>246</v>
@@ -7613,7 +8138,7 @@
         <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C38">
         <v>247</v>
@@ -7643,7 +8168,7 @@
         <v>697</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C39">
         <v>248</v>
@@ -7673,7 +8198,7 @@
         <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C40">
         <v>249</v>
@@ -7703,7 +8228,7 @@
         <v>697</v>
       </c>
       <c r="B41" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C41">
         <v>250</v>
@@ -7733,7 +8258,7 @@
         <v>697</v>
       </c>
       <c r="B42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C42">
         <v>251</v>
@@ -7766,7 +8291,7 @@
         <v>697</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>252</v>
@@ -7796,7 +8321,7 @@
         <v>697</v>
       </c>
       <c r="B44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>253</v>
@@ -7826,7 +8351,7 @@
         <v>697</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C45">
         <v>253</v>
@@ -7856,7 +8381,7 @@
         <v>697</v>
       </c>
       <c r="B46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C46">
         <v>254</v>
@@ -7886,7 +8411,7 @@
         <v>697</v>
       </c>
       <c r="B47" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C47">
         <v>255</v>
@@ -7916,7 +8441,7 @@
         <v>697</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C48">
         <v>256</v>
@@ -7946,7 +8471,7 @@
         <v>696</v>
       </c>
       <c r="B49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C49">
         <v>957</v>
@@ -7976,7 +8501,7 @@
         <v>696</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>956</v>
@@ -8006,7 +8531,7 @@
         <v>696</v>
       </c>
       <c r="B51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C51">
         <v>955</v>
@@ -8036,7 +8561,7 @@
         <v>696</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C52">
         <v>954</v>
@@ -8066,7 +8591,7 @@
         <v>696</v>
       </c>
       <c r="B53" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C53">
         <v>953</v>
@@ -8096,7 +8621,7 @@
         <v>696</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C54">
         <v>952</v>
@@ -8126,7 +8651,7 @@
         <v>696</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C55">
         <v>951</v>
@@ -8156,7 +8681,7 @@
         <v>696</v>
       </c>
       <c r="B56" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C56">
         <v>950</v>
@@ -8186,7 +8711,7 @@
         <v>696</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C57">
         <v>949</v>
@@ -8216,7 +8741,7 @@
         <v>696</v>
       </c>
       <c r="B58" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C58">
         <v>948</v>
@@ -8246,7 +8771,7 @@
         <v>696</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C59">
         <v>947</v>
@@ -8276,7 +8801,7 @@
         <v>696</v>
       </c>
       <c r="B60" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>947</v>
@@ -8306,7 +8831,7 @@
         <v>696</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>946</v>
@@ -8336,7 +8861,7 @@
         <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C62">
         <v>945</v>
@@ -8366,7 +8891,7 @@
         <v>696</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C63">
         <v>944</v>
@@ -8396,7 +8921,7 @@
         <v>696</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C64">
         <v>943</v>
@@ -8426,7 +8951,7 @@
         <v>696</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C65">
         <v>942</v>
@@ -8456,7 +8981,7 @@
         <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C66">
         <v>941</v>
@@ -8486,7 +9011,7 @@
         <v>696</v>
       </c>
       <c r="B67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C67">
         <v>940</v>
@@ -8516,7 +9041,7 @@
         <v>696</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C68">
         <v>939</v>
@@ -8546,7 +9071,7 @@
         <v>696</v>
       </c>
       <c r="B69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C69">
         <v>939</v>
@@ -8576,7 +9101,7 @@
         <v>696</v>
       </c>
       <c r="B70" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C70">
         <v>938</v>
@@ -8606,7 +9131,7 @@
         <v>696</v>
       </c>
       <c r="B71" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C71">
         <v>938</v>
@@ -8636,7 +9161,7 @@
         <v>696</v>
       </c>
       <c r="B72" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C72">
         <v>937</v>
@@ -8666,7 +9191,7 @@
         <v>696</v>
       </c>
       <c r="B73" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C73">
         <v>936</v>
@@ -8696,13 +9221,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E678F60-55D0-B74B-A838-9B20E212A2D1}">
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B98"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8722,25 +9247,25 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>783</v>
+        <v>841</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>785</v>
+        <v>843</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -8748,7 +9273,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -8778,7 +9303,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>282</v>
@@ -8808,7 +9333,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>283</v>
@@ -8838,7 +9363,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>283</v>
@@ -8868,7 +9393,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>284</v>
@@ -8898,7 +9423,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>285</v>
@@ -8928,7 +9453,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>285</v>
@@ -8958,7 +9483,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>286</v>
@@ -8988,7 +9513,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>287</v>
@@ -9018,7 +9543,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>288</v>
@@ -9048,7 +9573,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>289</v>
@@ -9078,7 +9603,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>289</v>
@@ -9108,7 +9633,7 @@
         <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>290</v>
@@ -9138,7 +9663,7 @@
         <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>291</v>
@@ -9168,7 +9693,7 @@
         <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>292</v>
@@ -9198,7 +9723,7 @@
         <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>293</v>
@@ -9228,7 +9753,7 @@
         <v>698</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>294</v>
@@ -9258,7 +9783,7 @@
         <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>295</v>
@@ -9288,7 +9813,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>296</v>
@@ -9318,7 +9843,7 @@
         <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>297</v>
@@ -9348,7 +9873,7 @@
         <v>698</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>298</v>
@@ -9378,7 +9903,7 @@
         <v>698</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>298</v>
@@ -9408,7 +9933,7 @@
         <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>299</v>
@@ -9438,7 +9963,7 @@
         <v>698</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>299</v>
@@ -9468,7 +9993,7 @@
         <v>698</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>300</v>
@@ -9498,7 +10023,7 @@
         <v>698</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>301</v>
@@ -9528,7 +10053,7 @@
         <v>698</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>302</v>
@@ -9558,7 +10083,7 @@
         <v>698</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>303</v>
@@ -9588,7 +10113,7 @@
         <v>698</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>303</v>
@@ -9618,7 +10143,7 @@
         <v>697</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>236</v>
@@ -9648,7 +10173,7 @@
         <v>697</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>237</v>
@@ -9678,7 +10203,7 @@
         <v>697</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>237</v>
@@ -9708,7 +10233,7 @@
         <v>697</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>238</v>
@@ -9738,7 +10263,7 @@
         <v>697</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>239</v>
@@ -9768,7 +10293,7 @@
         <v>697</v>
       </c>
       <c r="B36" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C36">
         <v>240</v>
@@ -9798,7 +10323,7 @@
         <v>697</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C37">
         <v>241</v>
@@ -9828,7 +10353,7 @@
         <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C38">
         <v>242</v>
@@ -9858,7 +10383,7 @@
         <v>697</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C39">
         <v>243</v>
@@ -9888,7 +10413,7 @@
         <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C40">
         <v>244</v>
@@ -9918,7 +10443,7 @@
         <v>697</v>
       </c>
       <c r="B41" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C41">
         <v>245</v>
@@ -9948,7 +10473,7 @@
         <v>697</v>
       </c>
       <c r="B42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C42">
         <v>246</v>
@@ -9978,7 +10503,7 @@
         <v>697</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>247</v>
@@ -10008,7 +10533,7 @@
         <v>697</v>
       </c>
       <c r="B44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>247</v>
@@ -10038,7 +10563,7 @@
         <v>697</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C45">
         <v>248</v>
@@ -10068,7 +10593,7 @@
         <v>697</v>
       </c>
       <c r="B46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C46">
         <v>249</v>
@@ -10098,7 +10623,7 @@
         <v>697</v>
       </c>
       <c r="B47" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C47">
         <v>249</v>
@@ -10128,7 +10653,7 @@
         <v>697</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C48">
         <v>249</v>
@@ -10158,7 +10683,7 @@
         <v>697</v>
       </c>
       <c r="B49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C49">
         <v>250</v>
@@ -10188,7 +10713,7 @@
         <v>697</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>251</v>
@@ -10218,7 +10743,7 @@
         <v>697</v>
       </c>
       <c r="B51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C51">
         <v>251</v>
@@ -10248,7 +10773,7 @@
         <v>697</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C52">
         <v>252</v>
@@ -10278,7 +10803,7 @@
         <v>697</v>
       </c>
       <c r="B53" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C53">
         <v>252</v>
@@ -10308,7 +10833,7 @@
         <v>697</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C54">
         <v>253</v>
@@ -10338,7 +10863,7 @@
         <v>697</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C55">
         <v>253</v>
@@ -10368,7 +10893,7 @@
         <v>697</v>
       </c>
       <c r="B56" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C56">
         <v>253</v>
@@ -10398,7 +10923,7 @@
         <v>697</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C57">
         <v>254</v>
@@ -10428,7 +10953,7 @@
         <v>697</v>
       </c>
       <c r="B58" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C58">
         <v>254</v>
@@ -10458,7 +10983,7 @@
         <v>697</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C59">
         <v>255</v>
@@ -10488,7 +11013,7 @@
         <v>697</v>
       </c>
       <c r="B60" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>255</v>
@@ -10518,7 +11043,7 @@
         <v>697</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>256</v>
@@ -10548,7 +11073,7 @@
         <v>697</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C62">
         <v>256</v>
@@ -10578,7 +11103,7 @@
         <v>696</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C63">
         <v>957</v>
@@ -10608,7 +11133,7 @@
         <v>696</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C64">
         <v>956</v>
@@ -10638,7 +11163,7 @@
         <v>696</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C65">
         <v>955</v>
@@ -10668,7 +11193,7 @@
         <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C66">
         <v>954</v>
@@ -10698,7 +11223,7 @@
         <v>696</v>
       </c>
       <c r="B67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C67">
         <v>953</v>
@@ -10728,7 +11253,7 @@
         <v>696</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C68">
         <v>953</v>
@@ -10758,7 +11283,7 @@
         <v>696</v>
       </c>
       <c r="B69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C69">
         <v>953</v>
@@ -10788,7 +11313,7 @@
         <v>696</v>
       </c>
       <c r="B70" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C70">
         <v>952</v>
@@ -10818,7 +11343,7 @@
         <v>696</v>
       </c>
       <c r="B71" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C71">
         <v>951</v>
@@ -10848,7 +11373,7 @@
         <v>696</v>
       </c>
       <c r="B72" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C72">
         <v>951</v>
@@ -10878,7 +11403,7 @@
         <v>696</v>
       </c>
       <c r="B73" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C73">
         <v>951</v>
@@ -10908,7 +11433,7 @@
         <v>696</v>
       </c>
       <c r="B74" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C74">
         <v>950</v>
@@ -10938,7 +11463,7 @@
         <v>696</v>
       </c>
       <c r="B75" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C75">
         <v>950</v>
@@ -10968,7 +11493,7 @@
         <v>696</v>
       </c>
       <c r="B76" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C76">
         <v>950</v>
@@ -10998,7 +11523,7 @@
         <v>696</v>
       </c>
       <c r="B77" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C77">
         <v>950</v>
@@ -11028,7 +11553,7 @@
         <v>696</v>
       </c>
       <c r="B78" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C78">
         <v>949</v>
@@ -11058,7 +11583,7 @@
         <v>696</v>
       </c>
       <c r="B79" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C79">
         <v>948</v>
@@ -11088,7 +11613,7 @@
         <v>696</v>
       </c>
       <c r="B80" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C80">
         <v>948</v>
@@ -11118,7 +11643,7 @@
         <v>696</v>
       </c>
       <c r="B81" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C81">
         <v>947</v>
@@ -11148,7 +11673,7 @@
         <v>696</v>
       </c>
       <c r="B82" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C82">
         <v>946</v>
@@ -11178,7 +11703,7 @@
         <v>696</v>
       </c>
       <c r="B83" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C83">
         <v>945</v>
@@ -11208,7 +11733,7 @@
         <v>696</v>
       </c>
       <c r="B84" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C84">
         <v>945</v>
@@ -11238,7 +11763,7 @@
         <v>696</v>
       </c>
       <c r="B85" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C85">
         <v>944</v>
@@ -11268,7 +11793,7 @@
         <v>696</v>
       </c>
       <c r="B86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C86">
         <v>944</v>
@@ -11298,7 +11823,7 @@
         <v>696</v>
       </c>
       <c r="B87" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C87">
         <v>943</v>
@@ -11328,7 +11853,7 @@
         <v>696</v>
       </c>
       <c r="B88" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C88">
         <v>942</v>
@@ -11358,7 +11883,7 @@
         <v>696</v>
       </c>
       <c r="B89" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C89">
         <v>941</v>
@@ -11388,7 +11913,7 @@
         <v>696</v>
       </c>
       <c r="B90" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C90">
         <v>941</v>
@@ -11418,7 +11943,7 @@
         <v>696</v>
       </c>
       <c r="B91" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C91">
         <v>940</v>
@@ -11448,7 +11973,7 @@
         <v>696</v>
       </c>
       <c r="B92" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C92">
         <v>940</v>
@@ -11478,7 +12003,7 @@
         <v>696</v>
       </c>
       <c r="B93" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C93">
         <v>939</v>
@@ -11508,7 +12033,7 @@
         <v>696</v>
       </c>
       <c r="B94" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C94">
         <v>938</v>
@@ -11538,7 +12063,7 @@
         <v>696</v>
       </c>
       <c r="B95" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C95">
         <v>938</v>
@@ -11568,7 +12093,7 @@
         <v>696</v>
       </c>
       <c r="B96" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C96">
         <v>937</v>
@@ -11598,7 +12123,7 @@
         <v>696</v>
       </c>
       <c r="B97" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C97">
         <v>937</v>
@@ -11628,7 +12153,7 @@
         <v>696</v>
       </c>
       <c r="B98" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C98">
         <v>936</v>
@@ -11658,13 +12183,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB268A33-3B3B-E24A-82DD-F59217D2B625}">
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B68"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11685,22 +12210,22 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>368</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>358</v>
@@ -11711,7 +12236,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -11732,7 +12257,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>282</v>
@@ -11753,7 +12278,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>283</v>
@@ -11774,7 +12299,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>284</v>
@@ -11795,7 +12320,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>285</v>
@@ -11816,7 +12341,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>286</v>
@@ -11837,7 +12362,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>287</v>
@@ -11858,7 +12383,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>288</v>
@@ -11879,7 +12404,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>289</v>
@@ -11900,7 +12425,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>290</v>
@@ -11921,7 +12446,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>291</v>
@@ -11942,7 +12467,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>292</v>
@@ -11963,7 +12488,7 @@
         <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>293</v>
@@ -11984,7 +12509,7 @@
         <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>294</v>
@@ -12005,7 +12530,7 @@
         <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>295</v>
@@ -12026,7 +12551,7 @@
         <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>296</v>
@@ -12047,7 +12572,7 @@
         <v>698</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>297</v>
@@ -12068,7 +12593,7 @@
         <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>298</v>
@@ -12089,7 +12614,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>299</v>
@@ -12110,7 +12635,7 @@
         <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -12131,7 +12656,7 @@
         <v>698</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>301</v>
@@ -12152,7 +12677,7 @@
         <v>698</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>302</v>
@@ -12173,7 +12698,7 @@
         <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>303</v>
@@ -12194,7 +12719,7 @@
         <v>697</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>236</v>
@@ -12215,7 +12740,7 @@
         <v>697</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>237</v>
@@ -12236,7 +12761,7 @@
         <v>697</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>238</v>
@@ -12257,7 +12782,7 @@
         <v>697</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>239</v>
@@ -12278,7 +12803,7 @@
         <v>697</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>240</v>
@@ -12299,7 +12824,7 @@
         <v>697</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>241</v>
@@ -12320,7 +12845,7 @@
         <v>697</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>242</v>
@@ -12341,7 +12866,7 @@
         <v>697</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>243</v>
@@ -12362,7 +12887,7 @@
         <v>697</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>244</v>
@@ -12383,7 +12908,7 @@
         <v>697</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>245</v>
@@ -12404,7 +12929,7 @@
         <v>697</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>246</v>
@@ -12425,7 +12950,7 @@
         <v>697</v>
       </c>
       <c r="B36" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C36">
         <v>247</v>
@@ -12446,7 +12971,7 @@
         <v>697</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C37">
         <v>248</v>
@@ -12467,7 +12992,7 @@
         <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C38">
         <v>249</v>
@@ -12488,7 +13013,7 @@
         <v>697</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C39">
         <v>250</v>
@@ -12509,7 +13034,7 @@
         <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C40">
         <v>250</v>
@@ -12530,7 +13055,7 @@
         <v>697</v>
       </c>
       <c r="B41" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C41">
         <v>251</v>
@@ -12551,7 +13076,7 @@
         <v>697</v>
       </c>
       <c r="B42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C42">
         <v>252</v>
@@ -12572,7 +13097,7 @@
         <v>697</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>253</v>
@@ -12593,7 +13118,7 @@
         <v>697</v>
       </c>
       <c r="B44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>254</v>
@@ -12614,7 +13139,7 @@
         <v>697</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C45">
         <v>255</v>
@@ -12635,7 +13160,7 @@
         <v>697</v>
       </c>
       <c r="B46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C46">
         <v>256</v>
@@ -12656,7 +13181,7 @@
         <v>696</v>
       </c>
       <c r="B47" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C47">
         <v>957</v>
@@ -12677,7 +13202,7 @@
         <v>696</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C48">
         <v>956</v>
@@ -12698,7 +13223,7 @@
         <v>696</v>
       </c>
       <c r="B49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C49">
         <v>955</v>
@@ -12719,7 +13244,7 @@
         <v>696</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>954</v>
@@ -12740,7 +13265,7 @@
         <v>696</v>
       </c>
       <c r="B51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C51">
         <v>953</v>
@@ -12761,7 +13286,7 @@
         <v>696</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C52">
         <v>952</v>
@@ -12782,7 +13307,7 @@
         <v>696</v>
       </c>
       <c r="B53" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C53">
         <v>951</v>
@@ -12803,7 +13328,7 @@
         <v>696</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C54">
         <v>950</v>
@@ -12824,7 +13349,7 @@
         <v>696</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C55">
         <v>949</v>
@@ -12845,7 +13370,7 @@
         <v>696</v>
       </c>
       <c r="B56" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C56">
         <v>948</v>
@@ -12866,7 +13391,7 @@
         <v>696</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C57">
         <v>947</v>
@@ -12887,7 +13412,7 @@
         <v>696</v>
       </c>
       <c r="B58" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C58">
         <v>946</v>
@@ -12908,7 +13433,7 @@
         <v>696</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C59">
         <v>945</v>
@@ -12929,7 +13454,7 @@
         <v>696</v>
       </c>
       <c r="B60" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>944</v>
@@ -12950,7 +13475,7 @@
         <v>696</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>943</v>
@@ -12971,7 +13496,7 @@
         <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C62">
         <v>942</v>
@@ -12992,7 +13517,7 @@
         <v>696</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C63">
         <v>941</v>
@@ -13013,7 +13538,7 @@
         <v>696</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C64">
         <v>940</v>
@@ -13034,7 +13559,7 @@
         <v>696</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C65">
         <v>939</v>
@@ -13055,7 +13580,7 @@
         <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C66">
         <v>938</v>
@@ -13076,7 +13601,7 @@
         <v>696</v>
       </c>
       <c r="B67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C67">
         <v>937</v>
@@ -13097,7 +13622,7 @@
         <v>696</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C68">
         <v>936</v>
@@ -13118,11 +13643,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -13141,19 +13666,19 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>789</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>777</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -13161,7 +13686,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -13185,7 +13710,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>282</v>
@@ -13209,7 +13734,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>283</v>
@@ -13233,7 +13758,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>284</v>
@@ -13257,7 +13782,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>285</v>
@@ -13281,7 +13806,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>286</v>
@@ -13305,7 +13830,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>287</v>
@@ -13329,7 +13854,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>288</v>
@@ -13353,7 +13878,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>289</v>
@@ -13377,7 +13902,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>290</v>
@@ -13401,7 +13926,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>291</v>
@@ -13425,7 +13950,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>292</v>
@@ -13449,7 +13974,7 @@
         <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>293</v>
@@ -13473,7 +13998,7 @@
         <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>294</v>
@@ -13497,7 +14022,7 @@
         <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>295</v>
@@ -13521,7 +14046,7 @@
         <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>296</v>
@@ -13545,7 +14070,7 @@
         <v>698</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>297</v>
@@ -13569,7 +14094,7 @@
         <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>298</v>
@@ -13593,7 +14118,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>299</v>
@@ -13617,7 +14142,7 @@
         <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>300</v>
@@ -13641,7 +14166,7 @@
         <v>698</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>300</v>
@@ -13665,7 +14190,7 @@
         <v>698</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>301</v>
@@ -13689,7 +14214,7 @@
         <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>301</v>
@@ -13713,7 +14238,7 @@
         <v>698</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>302</v>
@@ -13737,7 +14262,7 @@
         <v>698</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>302</v>
@@ -13761,7 +14286,7 @@
         <v>698</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>303</v>
@@ -13785,7 +14310,7 @@
         <v>697</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>236</v>
@@ -13809,7 +14334,7 @@
         <v>697</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>237</v>
@@ -13833,7 +14358,7 @@
         <v>697</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>237</v>
@@ -13857,7 +14382,7 @@
         <v>697</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>238</v>
@@ -13881,7 +14406,7 @@
         <v>697</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>238</v>
@@ -13905,7 +14430,7 @@
         <v>697</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>239</v>
@@ -13929,7 +14454,7 @@
         <v>697</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>239</v>
@@ -13953,7 +14478,7 @@
         <v>697</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>240</v>
@@ -13977,7 +14502,7 @@
         <v>697</v>
       </c>
       <c r="B36" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C36">
         <v>240</v>
@@ -14001,7 +14526,7 @@
         <v>697</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C37">
         <v>241</v>
@@ -14025,7 +14550,7 @@
         <v>697</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C38">
         <v>242</v>
@@ -14049,7 +14574,7 @@
         <v>697</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C39">
         <v>243</v>
@@ -14073,7 +14598,7 @@
         <v>697</v>
       </c>
       <c r="B40" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C40">
         <v>244</v>
@@ -14097,7 +14622,7 @@
         <v>697</v>
       </c>
       <c r="B41" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C41">
         <v>245</v>
@@ -14121,7 +14646,7 @@
         <v>697</v>
       </c>
       <c r="B42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C42">
         <v>246</v>
@@ -14145,7 +14670,7 @@
         <v>697</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>246</v>
@@ -14169,7 +14694,7 @@
         <v>697</v>
       </c>
       <c r="B44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>247</v>
@@ -14193,7 +14718,7 @@
         <v>697</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C45">
         <v>247</v>
@@ -14217,7 +14742,7 @@
         <v>697</v>
       </c>
       <c r="B46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C46">
         <v>248</v>
@@ -14241,7 +14766,7 @@
         <v>697</v>
       </c>
       <c r="B47" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C47">
         <v>248</v>
@@ -14265,7 +14790,7 @@
         <v>697</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C48">
         <v>249</v>
@@ -14289,7 +14814,7 @@
         <v>697</v>
       </c>
       <c r="B49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C49">
         <v>250</v>
@@ -14313,7 +14838,7 @@
         <v>697</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>250</v>
@@ -14337,7 +14862,7 @@
         <v>697</v>
       </c>
       <c r="B51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C51">
         <v>251</v>
@@ -14361,7 +14886,7 @@
         <v>697</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C52">
         <v>251</v>
@@ -14385,7 +14910,7 @@
         <v>697</v>
       </c>
       <c r="B53" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C53">
         <v>252</v>
@@ -14409,7 +14934,7 @@
         <v>697</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C54">
         <v>253</v>
@@ -14433,7 +14958,7 @@
         <v>697</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C55">
         <v>254</v>
@@ -14457,7 +14982,7 @@
         <v>697</v>
       </c>
       <c r="B56" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C56">
         <v>255</v>
@@ -14481,7 +15006,7 @@
         <v>697</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C57">
         <v>256</v>
@@ -14505,7 +15030,7 @@
         <v>696</v>
       </c>
       <c r="B58" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C58">
         <v>957</v>
@@ -14529,7 +15054,7 @@
         <v>696</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C59">
         <v>956</v>
@@ -14553,7 +15078,7 @@
         <v>696</v>
       </c>
       <c r="B60" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>955</v>
@@ -14577,7 +15102,7 @@
         <v>696</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>954</v>
@@ -14601,7 +15126,7 @@
         <v>696</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C62">
         <v>953</v>
@@ -14625,7 +15150,7 @@
         <v>696</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C63">
         <v>953</v>
@@ -14649,7 +15174,7 @@
         <v>696</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C64">
         <v>952</v>
@@ -14673,7 +15198,7 @@
         <v>696</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C65">
         <v>951</v>
@@ -14697,7 +15222,7 @@
         <v>696</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C66">
         <v>950</v>
@@ -14721,7 +15246,7 @@
         <v>696</v>
       </c>
       <c r="B67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C67">
         <v>949</v>
@@ -14745,7 +15270,7 @@
         <v>696</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C68">
         <v>948</v>
@@ -14769,7 +15294,7 @@
         <v>696</v>
       </c>
       <c r="B69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C69">
         <v>947</v>
@@ -14793,7 +15318,7 @@
         <v>696</v>
       </c>
       <c r="B70" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C70">
         <v>946</v>
@@ -14817,7 +15342,7 @@
         <v>696</v>
       </c>
       <c r="B71" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C71">
         <v>945</v>
@@ -14841,7 +15366,7 @@
         <v>696</v>
       </c>
       <c r="B72" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C72">
         <v>944</v>
@@ -14865,7 +15390,7 @@
         <v>696</v>
       </c>
       <c r="B73" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C73">
         <v>943</v>
@@ -14889,7 +15414,7 @@
         <v>696</v>
       </c>
       <c r="B74" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C74">
         <v>942</v>
@@ -14913,7 +15438,7 @@
         <v>696</v>
       </c>
       <c r="B75" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C75">
         <v>941</v>
@@ -14937,7 +15462,7 @@
         <v>696</v>
       </c>
       <c r="B76" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C76">
         <v>940</v>
@@ -14961,7 +15486,7 @@
         <v>696</v>
       </c>
       <c r="B77" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C77">
         <v>939</v>
@@ -14985,7 +15510,7 @@
         <v>696</v>
       </c>
       <c r="B78" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C78">
         <v>938</v>
@@ -15009,7 +15534,7 @@
         <v>696</v>
       </c>
       <c r="B79" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C79">
         <v>937</v>
@@ -15033,7 +15558,7 @@
         <v>696</v>
       </c>
       <c r="B80" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C80">
         <v>936</v>
@@ -15057,13 +15582,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AF3B60-0E74-734A-A08B-D35EB7E4C5C1}">
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B192"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15081,16 +15606,16 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>358</v>
@@ -15101,7 +15626,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -15122,7 +15647,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>281</v>
@@ -15143,7 +15668,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>281</v>
@@ -15164,7 +15689,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>281</v>
@@ -15185,7 +15710,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>281</v>
@@ -15206,7 +15731,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>283</v>
@@ -15227,7 +15752,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>283</v>
@@ -15248,7 +15773,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>283</v>
@@ -15269,7 +15794,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>283</v>
@@ -15290,7 +15815,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>285</v>
@@ -15311,7 +15836,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>285</v>
@@ -15332,7 +15857,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>285</v>
@@ -15353,7 +15878,7 @@
         <v>698</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>285</v>
@@ -15374,7 +15899,7 @@
         <v>698</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>285</v>
@@ -15395,7 +15920,7 @@
         <v>698</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>287</v>
@@ -15416,7 +15941,7 @@
         <v>698</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>287</v>
@@ -15437,7 +15962,7 @@
         <v>698</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>287</v>
@@ -15458,7 +15983,7 @@
         <v>698</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>287</v>
@@ -15479,7 +16004,7 @@
         <v>698</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>287</v>
@@ -15500,7 +16025,7 @@
         <v>698</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>289</v>
@@ -15521,7 +16046,7 @@
         <v>698</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>289</v>
@@ -15542,7 +16067,7 @@
         <v>698</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>289</v>
@@ -15563,7 +16088,7 @@
         <v>698</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>291</v>
@@ -15584,7 +16109,7 @@
         <v>698</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>291</v>
@@ -15605,7 +16130,7 @@
         <v>698</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>291</v>
@@ -15626,7 +16151,7 @@
         <v>698</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>291</v>
@@ -15647,7 +16172,7 @@
         <v>698</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>291</v>
@@ -15668,7 +16193,7 @@
         <v>698</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>293</v>
@@ -15689,7 +16214,7 @@
         <v>698</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>293</v>
@@ -15710,7 +16235,7 @@
         <v>698</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>293</v>
@@ -15731,7 +16256,7 @@
         <v>698</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>293</v>
@@ -15752,7 +16277,7 @@
         <v>698</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>293</v>
@@ -15773,7 +16298,7 @@
         <v>698</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>295</v>
@@ -15794,7 +16319,7 @@
         <v>698</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>295</v>
@@ -15815,7 +16340,7 @@
         <v>698</v>
       </c>
       <c r="B36" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C36">
         <v>295</v>
@@ -15836,7 +16361,7 @@
         <v>698</v>
       </c>
       <c r="B37" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C37">
         <v>295</v>
@@ -15857,7 +16382,7 @@
         <v>698</v>
       </c>
       <c r="B38" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C38">
         <v>295</v>
@@ -15878,7 +16403,7 @@
         <v>698</v>
       </c>
       <c r="B39" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C39">
         <v>297</v>
@@ -15899,7 +16424,7 @@
         <v>698</v>
       </c>
       <c r="B40" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C40">
         <v>297</v>
@@ -15920,7 +16445,7 @@
         <v>698</v>
       </c>
       <c r="B41" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C41">
         <v>297</v>
@@ -15941,7 +16466,7 @@
         <v>698</v>
       </c>
       <c r="B42" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C42">
         <v>299</v>
@@ -15962,7 +16487,7 @@
         <v>698</v>
       </c>
       <c r="B43" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43">
         <v>299</v>
@@ -15983,7 +16508,7 @@
         <v>698</v>
       </c>
       <c r="B44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C44">
         <v>299</v>
@@ -16004,7 +16529,7 @@
         <v>698</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C45">
         <v>299</v>
@@ -16025,7 +16550,7 @@
         <v>698</v>
       </c>
       <c r="B46" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C46">
         <v>299</v>
@@ -16046,7 +16571,7 @@
         <v>698</v>
       </c>
       <c r="B47" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C47">
         <v>299</v>
@@ -16067,7 +16592,7 @@
         <v>698</v>
       </c>
       <c r="B48" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C48">
         <v>299</v>
@@ -16088,7 +16613,7 @@
         <v>698</v>
       </c>
       <c r="B49" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C49">
         <v>301</v>
@@ -16109,7 +16634,7 @@
         <v>698</v>
       </c>
       <c r="B50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>301</v>
@@ -16130,7 +16655,7 @@
         <v>698</v>
       </c>
       <c r="B51" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C51">
         <v>301</v>
@@ -16151,7 +16676,7 @@
         <v>698</v>
       </c>
       <c r="B52" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C52">
         <v>301</v>
@@ -16172,7 +16697,7 @@
         <v>698</v>
       </c>
       <c r="B53" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C53">
         <v>301</v>
@@ -16193,7 +16718,7 @@
         <v>698</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C54">
         <v>303</v>
@@ -16214,7 +16739,7 @@
         <v>698</v>
       </c>
       <c r="B55" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C55">
         <v>303</v>
@@ -16235,7 +16760,7 @@
         <v>698</v>
       </c>
       <c r="B56" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C56">
         <v>303</v>
@@ -16256,7 +16781,7 @@
         <v>698</v>
       </c>
       <c r="B57" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C57">
         <v>303</v>
@@ -16277,7 +16802,7 @@
         <v>698</v>
       </c>
       <c r="B58" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C58">
         <v>303</v>
@@ -16298,7 +16823,7 @@
         <v>698</v>
       </c>
       <c r="B59" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C59">
         <v>303</v>
@@ -16319,7 +16844,7 @@
         <v>697</v>
       </c>
       <c r="B60" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C60">
         <v>236</v>
@@ -16340,7 +16865,7 @@
         <v>697</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C61">
         <v>236</v>
@@ -16361,7 +16886,7 @@
         <v>697</v>
       </c>
       <c r="B62" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C62">
         <v>236</v>
@@ -16382,7 +16907,7 @@
         <v>697</v>
       </c>
       <c r="B63" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C63">
         <v>236</v>
@@ -16403,7 +16928,7 @@
         <v>697</v>
       </c>
       <c r="B64" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C64">
         <v>236</v>
@@ -16424,7 +16949,7 @@
         <v>697</v>
       </c>
       <c r="B65" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C65">
         <v>236</v>
@@ -16445,7 +16970,7 @@
         <v>697</v>
       </c>
       <c r="B66" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C66">
         <v>236</v>
@@ -16466,7 +16991,7 @@
         <v>697</v>
       </c>
       <c r="B67" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C67">
         <v>236</v>
@@ -16487,7 +17012,7 @@
         <v>697</v>
       </c>
       <c r="B68" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C68">
         <v>236</v>
@@ -16508,7 +17033,7 @@
         <v>697</v>
       </c>
       <c r="B69" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C69">
         <v>238</v>
@@ -16529,7 +17054,7 @@
         <v>697</v>
       </c>
       <c r="B70" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C70">
         <v>238</v>
@@ -16550,7 +17075,7 @@
         <v>697</v>
       </c>
       <c r="B71" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C71">
         <v>238</v>
@@ -16571,7 +17096,7 @@
         <v>697</v>
       </c>
       <c r="B72" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C72">
         <v>238</v>
@@ -16592,7 +17117,7 @@
         <v>697</v>
       </c>
       <c r="B73" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C73">
         <v>238</v>
@@ -16616,7 +17141,7 @@
         <v>697</v>
       </c>
       <c r="B74" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C74">
         <v>240</v>
@@ -16637,7 +17162,7 @@
         <v>697</v>
       </c>
       <c r="B75" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C75">
         <v>240</v>
@@ -16658,7 +17183,7 @@
         <v>697</v>
       </c>
       <c r="B76" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C76">
         <v>240</v>
@@ -16679,7 +17204,7 @@
         <v>697</v>
       </c>
       <c r="B77" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C77">
         <v>240</v>
@@ -16700,7 +17225,7 @@
         <v>697</v>
       </c>
       <c r="B78" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C78">
         <v>240</v>
@@ -16721,7 +17246,7 @@
         <v>697</v>
       </c>
       <c r="B79" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C79">
         <v>242</v>
@@ -16742,7 +17267,7 @@
         <v>697</v>
       </c>
       <c r="B80" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C80">
         <v>242</v>
@@ -16763,7 +17288,7 @@
         <v>697</v>
       </c>
       <c r="B81" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C81">
         <v>242</v>
@@ -16784,7 +17309,7 @@
         <v>697</v>
       </c>
       <c r="B82" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C82">
         <v>242</v>
@@ -16808,7 +17333,7 @@
         <v>697</v>
       </c>
       <c r="B83" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C83">
         <v>242</v>
@@ -16829,7 +17354,7 @@
         <v>697</v>
       </c>
       <c r="B84" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C84">
         <v>244</v>
@@ -16850,7 +17375,7 @@
         <v>697</v>
       </c>
       <c r="B85" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C85">
         <v>244</v>
@@ -16871,7 +17396,7 @@
         <v>697</v>
       </c>
       <c r="B86" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C86">
         <v>244</v>
@@ -16892,7 +17417,7 @@
         <v>697</v>
       </c>
       <c r="B87" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C87">
         <v>244</v>
@@ -16913,7 +17438,7 @@
         <v>697</v>
       </c>
       <c r="B88" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C88">
         <v>244</v>
@@ -16934,7 +17459,7 @@
         <v>697</v>
       </c>
       <c r="B89" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C89">
         <v>246</v>
@@ -16955,7 +17480,7 @@
         <v>697</v>
       </c>
       <c r="B90" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C90">
         <v>246</v>
@@ -16976,7 +17501,7 @@
         <v>697</v>
       </c>
       <c r="B91" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C91">
         <v>246</v>
@@ -16997,7 +17522,7 @@
         <v>697</v>
       </c>
       <c r="B92" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C92">
         <v>246</v>
@@ -17018,7 +17543,7 @@
         <v>697</v>
       </c>
       <c r="B93" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C93">
         <v>248</v>
@@ -17039,7 +17564,7 @@
         <v>697</v>
       </c>
       <c r="B94" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C94">
         <v>248</v>
@@ -17063,7 +17588,7 @@
         <v>697</v>
       </c>
       <c r="B95" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C95">
         <v>248</v>
@@ -17084,7 +17609,7 @@
         <v>697</v>
       </c>
       <c r="B96" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C96">
         <v>248</v>
@@ -17105,7 +17630,7 @@
         <v>697</v>
       </c>
       <c r="B97" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C97">
         <v>248</v>
@@ -17126,7 +17651,7 @@
         <v>697</v>
       </c>
       <c r="B98" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C98">
         <v>248</v>
@@ -17147,7 +17672,7 @@
         <v>697</v>
       </c>
       <c r="B99" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C99">
         <v>250</v>
@@ -17168,7 +17693,7 @@
         <v>697</v>
       </c>
       <c r="B100" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C100">
         <v>250</v>
@@ -17189,7 +17714,7 @@
         <v>697</v>
       </c>
       <c r="B101" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C101">
         <v>250</v>
@@ -17210,7 +17735,7 @@
         <v>697</v>
       </c>
       <c r="B102" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C102">
         <v>252</v>
@@ -17231,7 +17756,7 @@
         <v>697</v>
       </c>
       <c r="B103" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C103">
         <v>252</v>
@@ -17252,7 +17777,7 @@
         <v>697</v>
       </c>
       <c r="B104" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C104">
         <v>252</v>
@@ -17273,7 +17798,7 @@
         <v>697</v>
       </c>
       <c r="B105" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C105">
         <v>252</v>
@@ -17294,7 +17819,7 @@
         <v>697</v>
       </c>
       <c r="B106" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C106">
         <v>254</v>
@@ -17315,7 +17840,7 @@
         <v>697</v>
       </c>
       <c r="B107" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C107">
         <v>254</v>
@@ -17336,7 +17861,7 @@
         <v>697</v>
       </c>
       <c r="B108" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C108">
         <v>254</v>
@@ -17357,7 +17882,7 @@
         <v>697</v>
       </c>
       <c r="B109" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C109">
         <v>256</v>
@@ -17378,7 +17903,7 @@
         <v>697</v>
       </c>
       <c r="B110" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C110">
         <v>256</v>
@@ -17399,7 +17924,7 @@
         <v>697</v>
       </c>
       <c r="B111" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C111">
         <v>256</v>
@@ -17420,7 +17945,7 @@
         <v>697</v>
       </c>
       <c r="B112" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C112">
         <v>256</v>
@@ -17441,7 +17966,7 @@
         <v>697</v>
       </c>
       <c r="B113" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C113">
         <v>256</v>
@@ -17462,7 +17987,7 @@
         <v>697</v>
       </c>
       <c r="B114" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C114">
         <v>256</v>
@@ -17483,7 +18008,7 @@
         <v>697</v>
       </c>
       <c r="B115" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C115">
         <v>256</v>
@@ -17504,7 +18029,7 @@
         <v>696</v>
       </c>
       <c r="B116" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C116">
         <v>957</v>
@@ -17525,7 +18050,7 @@
         <v>696</v>
       </c>
       <c r="B117" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C117">
         <v>957</v>
@@ -17546,7 +18071,7 @@
         <v>696</v>
       </c>
       <c r="B118" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C118">
         <v>957</v>
@@ -17567,7 +18092,7 @@
         <v>696</v>
       </c>
       <c r="B119" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C119">
         <v>957</v>
@@ -17588,7 +18113,7 @@
         <v>696</v>
       </c>
       <c r="B120" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C120">
         <v>957</v>
@@ -17609,7 +18134,7 @@
         <v>696</v>
       </c>
       <c r="B121" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C121">
         <v>957</v>
@@ -17630,7 +18155,7 @@
         <v>696</v>
       </c>
       <c r="B122" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C122">
         <v>955</v>
@@ -17651,7 +18176,7 @@
         <v>696</v>
       </c>
       <c r="B123" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C123">
         <v>955</v>
@@ -17672,7 +18197,7 @@
         <v>696</v>
       </c>
       <c r="B124" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C124">
         <v>955</v>
@@ -17693,7 +18218,7 @@
         <v>696</v>
       </c>
       <c r="B125" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C125">
         <v>955</v>
@@ -17714,7 +18239,7 @@
         <v>696</v>
       </c>
       <c r="B126" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C126">
         <v>955</v>
@@ -17735,7 +18260,7 @@
         <v>696</v>
       </c>
       <c r="B127" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C127">
         <v>955</v>
@@ -17756,7 +18281,7 @@
         <v>696</v>
       </c>
       <c r="B128" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C128">
         <v>955</v>
@@ -17777,7 +18302,7 @@
         <v>696</v>
       </c>
       <c r="B129" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C129">
         <v>953</v>
@@ -17798,7 +18323,7 @@
         <v>696</v>
       </c>
       <c r="B130" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C130">
         <v>953</v>
@@ -17819,7 +18344,7 @@
         <v>696</v>
       </c>
       <c r="B131" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C131">
         <v>953</v>
@@ -17840,7 +18365,7 @@
         <v>696</v>
       </c>
       <c r="B132" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C132">
         <v>953</v>
@@ -17861,7 +18386,7 @@
         <v>696</v>
       </c>
       <c r="B133" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C133">
         <v>953</v>
@@ -17882,7 +18407,7 @@
         <v>696</v>
       </c>
       <c r="B134" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C134">
         <v>953</v>
@@ -17903,7 +18428,7 @@
         <v>696</v>
       </c>
       <c r="B135" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C135">
         <v>953</v>
@@ -17924,7 +18449,7 @@
         <v>696</v>
       </c>
       <c r="B136" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C136">
         <v>951</v>
@@ -17945,7 +18470,7 @@
         <v>696</v>
       </c>
       <c r="B137" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C137">
         <v>951</v>
@@ -17966,7 +18491,7 @@
         <v>696</v>
       </c>
       <c r="B138" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C138">
         <v>951</v>
@@ -17987,7 +18512,7 @@
         <v>696</v>
       </c>
       <c r="B139" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C139">
         <v>951</v>
@@ -18008,7 +18533,7 @@
         <v>696</v>
       </c>
       <c r="B140" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C140">
         <v>951</v>
@@ -18029,7 +18554,7 @@
         <v>696</v>
       </c>
       <c r="B141" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C141">
         <v>951</v>
@@ -18050,7 +18575,7 @@
         <v>696</v>
       </c>
       <c r="B142" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C142">
         <v>949</v>
@@ -18071,7 +18596,7 @@
         <v>696</v>
       </c>
       <c r="B143" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C143">
         <v>949</v>
@@ -18092,7 +18617,7 @@
         <v>696</v>
       </c>
       <c r="B144" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C144">
         <v>949</v>
@@ -18113,7 +18638,7 @@
         <v>696</v>
       </c>
       <c r="B145" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C145">
         <v>949</v>
@@ -18134,7 +18659,7 @@
         <v>696</v>
       </c>
       <c r="B146" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C146">
         <v>949</v>
@@ -18155,7 +18680,7 @@
         <v>696</v>
       </c>
       <c r="B147" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C147">
         <v>949</v>
@@ -18176,7 +18701,7 @@
         <v>696</v>
       </c>
       <c r="B148" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C148">
         <v>949</v>
@@ -18197,7 +18722,7 @@
         <v>696</v>
       </c>
       <c r="B149" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C149">
         <v>949</v>
@@ -18218,7 +18743,7 @@
         <v>696</v>
       </c>
       <c r="B150" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C150">
         <v>947</v>
@@ -18239,7 +18764,7 @@
         <v>696</v>
       </c>
       <c r="B151" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C151">
         <v>947</v>
@@ -18260,7 +18785,7 @@
         <v>696</v>
       </c>
       <c r="B152" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C152">
         <v>947</v>
@@ -18281,7 +18806,7 @@
         <v>696</v>
       </c>
       <c r="B153" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C153">
         <v>947</v>
@@ -18302,7 +18827,7 @@
         <v>696</v>
       </c>
       <c r="B154" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C154">
         <v>947</v>
@@ -18323,7 +18848,7 @@
         <v>696</v>
       </c>
       <c r="B155" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C155">
         <v>947</v>
@@ -18344,7 +18869,7 @@
         <v>696</v>
       </c>
       <c r="B156" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C156">
         <v>947</v>
@@ -18365,7 +18890,7 @@
         <v>696</v>
       </c>
       <c r="B157" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C157">
         <v>947</v>
@@ -18386,7 +18911,7 @@
         <v>696</v>
       </c>
       <c r="B158" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C158">
         <v>947</v>
@@ -18407,7 +18932,7 @@
         <v>696</v>
       </c>
       <c r="B159" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C159">
         <v>947</v>
@@ -18428,7 +18953,7 @@
         <v>696</v>
       </c>
       <c r="B160" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C160">
         <v>945</v>
@@ -18449,7 +18974,7 @@
         <v>696</v>
       </c>
       <c r="B161" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C161">
         <v>945</v>
@@ -18470,7 +18995,7 @@
         <v>696</v>
       </c>
       <c r="B162" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C162">
         <v>945</v>
@@ -18491,7 +19016,7 @@
         <v>696</v>
       </c>
       <c r="B163" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C163">
         <v>945</v>
@@ -18512,7 +19037,7 @@
         <v>696</v>
       </c>
       <c r="B164" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C164">
         <v>945</v>
@@ -18533,7 +19058,7 @@
         <v>696</v>
       </c>
       <c r="B165" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C165">
         <v>945</v>
@@ -18554,7 +19079,7 @@
         <v>696</v>
       </c>
       <c r="B166" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C166">
         <v>943</v>
@@ -18575,7 +19100,7 @@
         <v>696</v>
       </c>
       <c r="B167" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C167">
         <v>943</v>
@@ -18596,7 +19121,7 @@
         <v>696</v>
       </c>
       <c r="B168" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C168">
         <v>943</v>
@@ -18617,7 +19142,7 @@
         <v>696</v>
       </c>
       <c r="B169" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C169">
         <v>943</v>
@@ -18638,7 +19163,7 @@
         <v>696</v>
       </c>
       <c r="B170" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C170">
         <v>943</v>
@@ -18659,7 +19184,7 @@
         <v>696</v>
       </c>
       <c r="B171" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C171">
         <v>943</v>
@@ -18680,7 +19205,7 @@
         <v>696</v>
       </c>
       <c r="B172" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C172">
         <v>943</v>
@@ -18701,7 +19226,7 @@
         <v>696</v>
       </c>
       <c r="B173" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C173">
         <v>943</v>
@@ -18722,7 +19247,7 @@
         <v>696</v>
       </c>
       <c r="B174" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C174">
         <v>943</v>
@@ -18743,7 +19268,7 @@
         <v>696</v>
       </c>
       <c r="B175" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C175">
         <v>941</v>
@@ -18764,7 +19289,7 @@
         <v>696</v>
       </c>
       <c r="B176" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C176">
         <v>941</v>
@@ -18785,7 +19310,7 @@
         <v>696</v>
       </c>
       <c r="B177" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C177">
         <v>941</v>
@@ -18806,7 +19331,7 @@
         <v>696</v>
       </c>
       <c r="B178" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C178">
         <v>941</v>
@@ -18827,7 +19352,7 @@
         <v>696</v>
       </c>
       <c r="B179" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C179">
         <v>941</v>
@@ -18848,7 +19373,7 @@
         <v>696</v>
       </c>
       <c r="B180" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C180">
         <v>941</v>
@@ -18869,7 +19394,7 @@
         <v>696</v>
       </c>
       <c r="B181" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C181">
         <v>939</v>
@@ -18890,7 +19415,7 @@
         <v>696</v>
       </c>
       <c r="B182" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C182">
         <v>939</v>
@@ -18911,7 +19436,7 @@
         <v>696</v>
       </c>
       <c r="B183" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C183">
         <v>939</v>
@@ -18932,7 +19457,7 @@
         <v>696</v>
       </c>
       <c r="B184" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C184">
         <v>939</v>
@@ -18953,7 +19478,7 @@
         <v>696</v>
       </c>
       <c r="B185" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C185">
         <v>939</v>
@@ -18974,7 +19499,7 @@
         <v>696</v>
       </c>
       <c r="B186" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C186">
         <v>939</v>
@@ -18995,7 +19520,7 @@
         <v>696</v>
       </c>
       <c r="B187" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C187">
         <v>939</v>
@@ -19016,7 +19541,7 @@
         <v>696</v>
       </c>
       <c r="B188" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C188">
         <v>939</v>
@@ -19037,7 +19562,7 @@
         <v>696</v>
       </c>
       <c r="B189" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C189">
         <v>937</v>
@@ -19058,7 +19583,7 @@
         <v>696</v>
       </c>
       <c r="B190" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C190">
         <v>937</v>
@@ -19079,7 +19604,7 @@
         <v>696</v>
       </c>
       <c r="B191" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C191">
         <v>937</v>
@@ -19100,7 +19625,7 @@
         <v>696</v>
       </c>
       <c r="B192" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C192">
         <v>937</v>
@@ -19121,13 +19646,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81122215-19AD-6544-853F-6F9496FAC7F0}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B35"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19145,7 +19670,7 @@
         <v>771</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>840</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>360</v>
@@ -19166,7 +19691,7 @@
         <v>365</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>366</v>
@@ -19175,10 +19700,10 @@
         <v>367</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>774</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>775</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>358</v>
@@ -19189,7 +19714,7 @@
         <v>698</v>
       </c>
       <c r="B2" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C2">
         <v>281</v>
@@ -19236,7 +19761,7 @@
         <v>698</v>
       </c>
       <c r="B3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C3">
         <v>283</v>
@@ -19280,7 +19805,7 @@
         <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C4">
         <v>285</v>
@@ -19324,7 +19849,7 @@
         <v>698</v>
       </c>
       <c r="B5" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C5">
         <v>287</v>
@@ -19368,7 +19893,7 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C6">
         <v>289</v>
@@ -19412,7 +19937,7 @@
         <v>698</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C7">
         <v>291</v>
@@ -19456,7 +19981,7 @@
         <v>698</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C8">
         <v>293</v>
@@ -19500,7 +20025,7 @@
         <v>698</v>
       </c>
       <c r="B9" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C9">
         <v>295</v>
@@ -19544,7 +20069,7 @@
         <v>698</v>
       </c>
       <c r="B10" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C10">
         <v>297</v>
@@ -19588,7 +20113,7 @@
         <v>698</v>
       </c>
       <c r="B11" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C11">
         <v>299</v>
@@ -19632,7 +20157,7 @@
         <v>698</v>
       </c>
       <c r="B12" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C12">
         <v>301</v>
@@ -19676,7 +20201,7 @@
         <v>698</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C13">
         <v>303</v>
@@ -19720,7 +20245,7 @@
         <v>697</v>
       </c>
       <c r="B14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C14">
         <v>236</v>
@@ -19764,7 +20289,7 @@
         <v>697</v>
       </c>
       <c r="B15" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C15">
         <v>238</v>
@@ -19808,7 +20333,7 @@
         <v>697</v>
       </c>
       <c r="B16" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C16">
         <v>240</v>
@@ -19852,7 +20377,7 @@
         <v>697</v>
       </c>
       <c r="B17" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C17">
         <v>242</v>
@@ -19896,7 +20421,7 @@
         <v>697</v>
       </c>
       <c r="B18" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C18">
         <v>244</v>
@@ -19940,7 +20465,7 @@
         <v>697</v>
       </c>
       <c r="B19" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C19">
         <v>246</v>
@@ -19984,7 +20509,7 @@
         <v>697</v>
       </c>
       <c r="B20" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C20">
         <v>248</v>
@@ -20028,7 +20553,7 @@
         <v>697</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C21">
         <v>250</v>
@@ -20072,7 +20597,7 @@
         <v>697</v>
       </c>
       <c r="B22" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C22">
         <v>252</v>
@@ -20116,7 +20641,7 @@
         <v>697</v>
       </c>
       <c r="B23" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C23">
         <v>254</v>
@@ -20160,7 +20685,7 @@
         <v>697</v>
       </c>
       <c r="B24" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C24">
         <v>256</v>
@@ -20204,7 +20729,7 @@
         <v>696</v>
       </c>
       <c r="B25" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C25">
         <v>957</v>
@@ -20248,7 +20773,7 @@
         <v>696</v>
       </c>
       <c r="B26" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C26">
         <v>955</v>
@@ -20292,7 +20817,7 @@
         <v>696</v>
       </c>
       <c r="B27" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C27">
         <v>953</v>
@@ -20336,7 +20861,7 @@
         <v>696</v>
       </c>
       <c r="B28" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C28">
         <v>951</v>
@@ -20380,7 +20905,7 @@
         <v>696</v>
       </c>
       <c r="B29" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C29">
         <v>949</v>
@@ -20424,7 +20949,7 @@
         <v>696</v>
       </c>
       <c r="B30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C30">
         <v>947</v>
@@ -20468,7 +20993,7 @@
         <v>696</v>
       </c>
       <c r="B31" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C31">
         <v>945</v>
@@ -20512,7 +21037,7 @@
         <v>696</v>
       </c>
       <c r="B32" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C32">
         <v>943</v>
@@ -20556,7 +21081,7 @@
         <v>696</v>
       </c>
       <c r="B33" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C33">
         <v>941</v>
@@ -20600,7 +21125,7 @@
         <v>696</v>
       </c>
       <c r="B34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C34">
         <v>939</v>
@@ -20644,7 +21169,7 @@
         <v>696</v>
       </c>
       <c r="B35" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C35">
         <v>937</v>
